--- a/release/PHASE_FPGA_MAIN_01_REFDES.xlsx
+++ b/release/PHASE_FPGA_MAIN_01_REFDES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="28800" windowHeight="14712"/>
+    <workbookView xWindow="1776" yWindow="0" windowWidth="28800" windowHeight="14712"/>
   </bookViews>
   <sheets>
     <sheet name="PHASE_FPGA_MAIN_01" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7867" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="2061">
   <si>
     <t>#</t>
   </si>
@@ -6195,6 +6195,18 @@
   </si>
   <si>
     <t>Киргуду</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>sdfsdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdfsd</t>
+  </si>
+  <si>
+    <t>Kar</t>
   </si>
 </sst>
 </file>
@@ -6534,10 +6546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1680"/>
+  <dimension ref="A1:G1681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A1643" workbookViewId="0">
+      <selection activeCell="G1679" sqref="G1679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44606,11 +44618,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1680" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1680" s="1" t="s">
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1679" s="1">
+        <v>1678</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1679" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1679" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1679" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G1679" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1681" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="E1680" s="1" t="s">
+      <c r="E1681" s="1" t="s">
         <v>2054</v>
       </c>
     </row>

--- a/release/PHASE_FPGA_MAIN_01_REFDES.xlsx
+++ b/release/PHASE_FPGA_MAIN_01_REFDES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gp\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="0" windowWidth="28800" windowHeight="14712"/>
+    <workbookView xWindow="2664" yWindow="0" windowWidth="28800" windowHeight="14712"/>
   </bookViews>
   <sheets>
     <sheet name="PHASE_FPGA_MAIN_01" sheetId="1" r:id="rId1"/>
